--- a/doc/ices_template/ICES-Oceanography-Data-Submission-Format.xlsx
+++ b/doc/ices_template/ICES-Oceanography-Data-Submission-Format.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED54B2D-037E-4454-A851-A4F471AA662A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350301E5-ADE0-4987-A5F6-07CF7013B3C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11325" tabRatio="770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" r:id="rId1"/>
@@ -565,9 +565,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -575,10 +572,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Input" xfId="1" builtinId="20"/>
+    <cellStyle name="Hyperlänk" xfId="2" builtinId="8"/>
+    <cellStyle name="Indata" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -859,7 +859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -963,16 +963,16 @@
       <c r="A9" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="27" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="27" t="s">
         <v>85</v>
       </c>
       <c r="F9" s="17" t="s">
@@ -984,12 +984,12 @@
       <c r="A10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="24"/>
+      <c r="E10" s="27"/>
       <c r="F10" s="4" t="s">
         <v>121</v>
       </c>
@@ -1007,12 +1007,12 @@
       <c r="A11" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="24"/>
+      <c r="E11" s="27"/>
       <c r="F11" s="4" t="s">
         <v>122</v>
       </c>
@@ -1071,26 +1071,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+    <row r="16" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="25">
         <v>1</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="26"/>
+      <c r="G16" s="25"/>
     </row>
     <row r="17" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -1550,8 +1550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E61BBDC-CC05-4ACA-AF75-3D15583FA841}">
   <dimension ref="A1:U11400"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
